--- a/물품구매목록.xlsx
+++ b/물품구매목록.xlsx
@@ -27,16 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +182,38 @@
   </si>
   <si>
     <t>I2S 3W 스테레오 앰프 스피커 쉴드 -라즈베리 파이용 (Adafruit I2S 3W Stereo Speaker Bonnet for Raspberry Pi - Mini Kit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(온라인 구매 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(오프라인 구매 목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인두기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다형 드라이버 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절연테이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -635,22 +663,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -658,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -673,7 +701,7 @@
         <v>9400</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -681,10 +709,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -696,7 +724,7 @@
         <v>18560</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -704,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -719,7 +747,7 @@
         <v>17506</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -727,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -742,7 +770,7 @@
         <v>12400</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -750,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -765,7 +793,7 @@
         <v>2000</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -773,10 +801,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -788,7 +816,7 @@
         <v>24400</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -796,10 +824,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -809,7 +837,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -817,10 +845,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -832,7 +860,7 @@
         <v>56600</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -840,10 +868,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -855,7 +883,7 @@
         <v>71500</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -863,10 +891,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -876,7 +904,7 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -884,10 +912,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -899,7 +927,7 @@
         <v>3300</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -907,10 +935,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -922,7 +950,7 @@
         <v>2830</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -930,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -945,7 +973,7 @@
         <v>5050</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -954,6 +982,39 @@
         <v>268150</v>
       </c>
       <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
